--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -473,10 +473,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8861</v>
+        <v>8858</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8862</v>
+        <v>8859</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9547</v>
@@ -485,7 +485,7 @@
         <v>9545</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1015</v>
+        <v>1728</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -497,10 +497,10 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="D3" t="n">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E3" t="n">
         <v>2372</v>
@@ -520,10 +520,10 @@
         <v>0.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D4" t="n">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E4" t="n">
         <v>1560</v>
@@ -543,10 +543,10 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
+        <v>1232</v>
+      </c>
+      <c r="D5" t="n">
         <v>1233</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1234</v>
       </c>
       <c r="E5" t="n">
         <v>1268</v>
@@ -555,7 +555,7 @@
         <v>1266</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -578,7 +578,7 @@
         <v>988</v>
       </c>
       <c r="G6" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -589,10 +589,10 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D7" t="n">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E7" t="n">
         <v>942</v>
@@ -601,7 +601,7 @@
         <v>942</v>
       </c>
       <c r="G7" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         <v>0.0311</v>
       </c>
       <c r="C8" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D8" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E8" t="n">
         <v>1162</v>
@@ -624,7 +624,7 @@
         <v>1162</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
         <v>780</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         <v>0.0112</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
         <v>165</v>
@@ -785,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1001,13 +1001,13 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4636</v>
+        <v>4633</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>760</v>
+        <v>876</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>4892</v>
@@ -1025,13 +1025,13 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D3" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E3" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F3" t="n">
         <v>2108</v>
@@ -1048,10 +1048,10 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D4" t="n">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>615</v>
       </c>
       <c r="E5" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" t="n">
         <v>637</v>
@@ -1094,13 +1094,13 @@
         <v>0.0625</v>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>169</v>
@@ -1123,7 +1123,7 @@
         <v>176</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
         <v>182</v>
@@ -1146,7 +1146,7 @@
         <v>134</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>138</v>
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -473,10 +473,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8858</v>
+        <v>8864</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8859</v>
+        <v>8865</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9547</v>
@@ -485,7 +485,7 @@
         <v>9545</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -497,10 +497,10 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D3" t="n">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="E3" t="n">
         <v>2372</v>
@@ -543,10 +543,10 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D5" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E5" t="n">
         <v>1268</v>
@@ -566,10 +566,10 @@
         <v>0.0864</v>
       </c>
       <c r="C6" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D6" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E6" t="n">
         <v>988</v>
@@ -578,7 +578,7 @@
         <v>988</v>
       </c>
       <c r="G6" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
@@ -589,10 +589,10 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D7" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E7" t="n">
         <v>942</v>
@@ -647,7 +647,7 @@
         <v>780</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         <v>0.0112</v>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
         <v>165</v>
@@ -1001,13 +1001,13 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4633</v>
+        <v>4638</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4625</v>
+        <v>4630</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>4892</v>
@@ -1025,10 +1025,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D3" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E3" t="n">
         <v>591</v>
@@ -1048,10 +1048,10 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D4" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0.125</v>
       </c>
       <c r="C5" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D5" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -1100,7 +1100,7 @@
         <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>169</v>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -473,10 +473,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8864</v>
+        <v>8941</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8865</v>
+        <v>8942</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9547</v>
@@ -485,7 +485,7 @@
         <v>9545</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -497,10 +497,10 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="D3" t="n">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="E3" t="n">
         <v>2372</v>
@@ -520,10 +520,10 @@
         <v>0.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D4" t="n">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="E4" t="n">
         <v>1560</v>
@@ -543,10 +543,10 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D5" t="n">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="E5" t="n">
         <v>1268</v>
@@ -555,7 +555,7 @@
         <v>1266</v>
       </c>
       <c r="G5" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
@@ -566,10 +566,10 @@
         <v>0.0864</v>
       </c>
       <c r="C6" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D6" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E6" t="n">
         <v>988</v>
@@ -578,7 +578,7 @@
         <v>988</v>
       </c>
       <c r="G6" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -589,10 +589,10 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>808</v>
+        <v>876</v>
       </c>
       <c r="D7" t="n">
-        <v>808</v>
+        <v>876</v>
       </c>
       <c r="E7" t="n">
         <v>942</v>
@@ -612,10 +612,10 @@
         <v>0.0311</v>
       </c>
       <c r="C8" t="n">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D8" t="n">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E8" t="n">
         <v>1162</v>
@@ -624,7 +624,7 @@
         <v>1162</v>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +635,10 @@
         <v>0.0187</v>
       </c>
       <c r="C9" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D9" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E9" t="n">
         <v>780</v>
@@ -647,7 +647,7 @@
         <v>780</v>
       </c>
       <c r="G9" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -750,10 +750,10 @@
         <v>0.00145</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -773,10 +773,10 @@
         <v>0.000871</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1001,10 +1001,10 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4638</v>
+        <v>4641</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4630</v>
+        <v>4633</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>877</v>
@@ -1025,10 +1025,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D3" t="n">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E3" t="n">
         <v>591</v>
@@ -1048,10 +1048,10 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D4" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0.125</v>
       </c>
       <c r="C5" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D5" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F5" t="n">
         <v>637</v>
@@ -1094,13 +1094,13 @@
         <v>0.0625</v>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>169</v>
@@ -1140,10 +1140,10 @@
         <v>0.0156</v>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1186,10 +1186,10 @@
         <v>0.00391</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">unoise paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unoise_umerge paired</t>
   </si>
   <si>
     <t xml:space="preserve">unoise_usearch paired</t>
@@ -464,6 +467,9 @@
       <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -473,21 +479,24 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8941</v>
+        <v>8860</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8942</v>
+        <v>8861</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>9547</v>
+        <v>9371</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9545</v>
+        <v>9622</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1722</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>9622</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1728</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -497,18 +506,21 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="D3" t="n">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="E3" t="n">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="F3" t="n">
-        <v>2372</v>
+        <v>2388</v>
       </c>
       <c r="G3" t="n">
+        <v>2388</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -520,18 +532,21 @@
         <v>0.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D4" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E4" t="n">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="F4" t="n">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="G4" t="n">
+        <v>1570</v>
+      </c>
+      <c r="H4" t="n">
         <v>431</v>
       </c>
     </row>
@@ -543,19 +558,22 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D5" t="n">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E5" t="n">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="F5" t="n">
-        <v>1266</v>
+        <v>1282</v>
       </c>
       <c r="G5" t="n">
-        <v>340</v>
+        <v>1282</v>
+      </c>
+      <c r="H5" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -566,19 +584,22 @@
         <v>0.0864</v>
       </c>
       <c r="C6" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D6" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E6" t="n">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="F6" t="n">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="G6" t="n">
-        <v>257</v>
+        <v>992</v>
+      </c>
+      <c r="H6" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -589,18 +610,21 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>876</v>
+        <v>807</v>
       </c>
       <c r="D7" t="n">
-        <v>876</v>
+        <v>807</v>
       </c>
       <c r="E7" t="n">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="F7" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="G7" t="n">
+        <v>946</v>
+      </c>
+      <c r="H7" t="n">
         <v>223</v>
       </c>
     </row>
@@ -612,19 +636,22 @@
         <v>0.0311</v>
       </c>
       <c r="C8" t="n">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D8" t="n">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E8" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F8" t="n">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="G8" t="n">
-        <v>158</v>
+        <v>1170</v>
+      </c>
+      <c r="H8" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -635,18 +662,21 @@
         <v>0.0187</v>
       </c>
       <c r="C9" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D9" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E9" t="n">
-        <v>780</v>
+        <v>621</v>
       </c>
       <c r="F9" t="n">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="G9" t="n">
+        <v>789</v>
+      </c>
+      <c r="H9" t="n">
         <v>200</v>
       </c>
     </row>
@@ -658,18 +688,21 @@
         <v>0.0112</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G10" t="n">
+        <v>168</v>
+      </c>
+      <c r="H10" t="n">
         <v>42</v>
       </c>
     </row>
@@ -687,12 +720,15 @@
         <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="n">
+        <v>41</v>
+      </c>
+      <c r="H11" t="n">
         <v>15</v>
       </c>
     </row>
@@ -713,9 +749,12 @@
         <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G12" t="n">
+        <v>99</v>
+      </c>
+      <c r="H12" t="n">
         <v>36</v>
       </c>
     </row>
@@ -736,9 +775,12 @@
         <v>95</v>
       </c>
       <c r="F13" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" t="n">
+        <v>97</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,10 +792,10 @@
         <v>0.00145</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -762,6 +804,9 @@
         <v>15</v>
       </c>
       <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -773,10 +818,10 @@
         <v>0.000871</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -785,6 +830,9 @@
         <v>14</v>
       </c>
       <c r="G15" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -805,10 +853,13 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -825,12 +876,15 @@
         <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
+        <v>24</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -848,12 +902,15 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,6 +936,9 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -902,6 +962,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -925,26 +988,29 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B21">
+  <conditionalFormatting sqref="B3:B21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="0.000099975134"/>
-        <cfvo type="num" val="0.049987567"/>
-        <cfvo type="num" val="0.49987567"/>
+        <cfvo type="num" val="0.00000316"/>
+        <cfvo type="num" val="0.00403"/>
+        <cfvo type="num" val="0.4"/>
         <color rgb="FFABDDA4"/>
         <color rgb="FFFFFFBF"/>
         <color rgb="FFFDAE61"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:H21">
+  <conditionalFormatting sqref="C3:I21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0.9547"/>
-        <cfvo type="num" val="477.35"/>
-        <cfvo type="num" val="4773.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="41"/>
+        <cfvo type="num" val="2388"/>
         <color rgb="FFABDDA4"/>
         <color rgb="FFFFFFBF"/>
         <color rgb="FFFDAE61"/>
@@ -984,13 +1050,16 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1001,21 +1070,24 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4641</v>
+        <v>4633</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4633</v>
+        <v>4625</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>4892</v>
+        <v>4848</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>4892</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>4912</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>4912</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1025,19 +1097,22 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D3" t="n">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="E3" t="n">
         <v>591</v>
       </c>
       <c r="F3" t="n">
-        <v>2108</v>
+        <v>2073</v>
       </c>
       <c r="G3" t="n">
-        <v>2108</v>
+        <v>2113</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2113</v>
       </c>
     </row>
     <row r="4">
@@ -1048,19 +1123,22 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D4" t="n">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="G4" t="n">
-        <v>1568</v>
+        <v>1570</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1570</v>
       </c>
     </row>
     <row r="5">
@@ -1077,13 +1155,16 @@
         <v>615</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G5" t="n">
-        <v>637</v>
+        <v>644</v>
+      </c>
+      <c r="H5" t="n">
+        <v>644</v>
       </c>
     </row>
     <row r="6">
@@ -1094,10 +1175,10 @@
         <v>0.0625</v>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -1106,7 +1187,10 @@
         <v>169</v>
       </c>
       <c r="G6" t="n">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="H6" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -1129,7 +1213,10 @@
         <v>182</v>
       </c>
       <c r="G7" t="n">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="H7" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -1140,19 +1227,22 @@
         <v>0.0156</v>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="H8" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -1172,10 +1262,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1186,10 +1279,10 @@
         <v>0.00391</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1198,6 +1291,9 @@
         <v>27</v>
       </c>
       <c r="G10" t="n">
+        <v>27</v>
+      </c>
+      <c r="H10" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1223,6 +1319,9 @@
       <c r="G11" t="n">
         <v>15</v>
       </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1246,6 +1345,9 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1269,6 +1371,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1292,6 +1397,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1315,6 +1423,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1338,6 +1449,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1361,6 +1475,9 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1384,6 +1501,9 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1407,6 +1527,9 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1430,6 +1553,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1453,26 +1579,29 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B21">
+  <conditionalFormatting sqref="B3:B21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="0.00009996720886"/>
-        <cfvo type="num" val="0.04998360443"/>
-        <cfvo type="num" val="0.4998360443"/>
+        <cfvo type="num" val="0.0000000596"/>
+        <cfvo type="num" val="0.000977"/>
+        <cfvo type="num" val="0.5"/>
         <color rgb="FFABDDA4"/>
         <color rgb="FFFFFFBF"/>
         <color rgb="FFFDAE61"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:H21">
+  <conditionalFormatting sqref="C3:I21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0.4892"/>
-        <cfvo type="num" val="244.6"/>
-        <cfvo type="num" val="2446"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2113"/>
         <color rgb="FFABDDA4"/>
         <color rgb="FFFFFFBF"/>
         <color rgb="FFFDAE61"/>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -479,10 +479,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8860</v>
+        <v>8858</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8861</v>
+        <v>8859</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9371</v>
@@ -532,10 +532,10 @@
         <v>0.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D4" t="n">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E4" t="n">
         <v>1561</v>
@@ -584,10 +584,10 @@
         <v>0.0864</v>
       </c>
       <c r="C6" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D6" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E6" t="n">
         <v>979</v>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -479,10 +479,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8858</v>
+        <v>8864</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8859</v>
+        <v>8864</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9371</v>
@@ -494,7 +494,7 @@
         <v>9622</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -506,10 +506,10 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D3" t="n">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="E3" t="n">
         <v>2366</v>
@@ -558,7 +558,7 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D5" t="n">
         <v>1233</v>
@@ -584,10 +584,10 @@
         <v>0.0864</v>
       </c>
       <c r="C6" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D6" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E6" t="n">
         <v>979</v>
@@ -599,7 +599,7 @@
         <v>992</v>
       </c>
       <c r="H6" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D7" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E7" t="n">
         <v>929</v>
@@ -677,7 +677,7 @@
         <v>789</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         <v>0.0112</v>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
         <v>166</v>
@@ -1070,13 +1070,13 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4633</v>
+        <v>4638</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4625</v>
+        <v>4630</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>4848</v>
@@ -1097,10 +1097,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D3" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E3" t="n">
         <v>591</v>
@@ -1123,10 +1123,10 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D4" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0.125</v>
       </c>
       <c r="C5" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D5" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -1181,7 +1181,7 @@
         <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>169</v>

--- a/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
+++ b/test/mock_cmp/ITS__ITS3-KYO2...ITS4/counts.xlsx
@@ -479,10 +479,10 @@
         <v>0.99975134</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8864</v>
+        <v>8928</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8864</v>
+        <v>8928</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>9371</v>
@@ -494,7 +494,7 @@
         <v>9622</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -506,10 +506,10 @@
         <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D3" t="n">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E3" t="n">
         <v>2366</v>
@@ -532,10 +532,10 @@
         <v>0.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D4" t="n">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E4" t="n">
         <v>1561</v>
@@ -547,7 +547,7 @@
         <v>1570</v>
       </c>
       <c r="H4" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         <v>0.144</v>
       </c>
       <c r="C5" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D5" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E5" t="n">
         <v>1276</v>
@@ -599,7 +599,7 @@
         <v>992</v>
       </c>
       <c r="H6" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         <v>0.0518</v>
       </c>
       <c r="C7" t="n">
-        <v>808</v>
+        <v>875</v>
       </c>
       <c r="D7" t="n">
-        <v>808</v>
+        <v>875</v>
       </c>
       <c r="E7" t="n">
         <v>929</v>
@@ -636,10 +636,10 @@
         <v>0.0311</v>
       </c>
       <c r="C8" t="n">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D8" t="n">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E8" t="n">
         <v>1163</v>
@@ -677,7 +677,7 @@
         <v>789</v>
       </c>
       <c r="H9" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         <v>0.0112</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
         <v>166</v>
@@ -792,10 +792,10 @@
         <v>0.00145</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -818,10 +818,10 @@
         <v>0.000871</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -859,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1070,13 +1070,13 @@
         <v>0.9996720886</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4638</v>
+        <v>4632</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>4630</v>
+        <v>4624</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>4848</v>
@@ -1097,10 +1097,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D3" t="n">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E3" t="n">
         <v>591</v>
@@ -1123,10 +1123,10 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D4" t="n">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0.125</v>
       </c>
       <c r="C5" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D5" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -1175,13 +1175,13 @@
         <v>0.0625</v>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>169</v>
@@ -1227,10 +1227,10 @@
         <v>0.0156</v>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -1279,10 +1279,10 @@
         <v>0.00391</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
